--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -42,13 +42,16 @@
     <t>Age</t>
   </si>
   <si>
-    <t>artziel@gmail.com</t>
-  </si>
-  <si>
     <t>https://www.google.com</t>
   </si>
   <si>
     <t>Artziel Narvaiza Gonzalez</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>xxx@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -397,10 +400,11 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,31 +421,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>12345678</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
